--- a/Cópia de PLANILHA_MÓDULOS_V0.xlsx
+++ b/Cópia de PLANILHA_MÓDULOS_V0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Guido\Desktop\Github Repositories\PrimeiroBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5005A830-0204-4209-925F-770EE2A57369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DD964-0977-4298-8121-BC79784019AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemplos Módulo" sheetId="11" r:id="rId1"/>
@@ -1451,27 +1451,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,6 +1459,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2099,9 +2099,9 @@
   <dimension ref="A1:S876"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="12" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="14" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="16" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="17" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2750,9 +2750,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>9</v>
-      </c>
+      <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -7287,117 +7285,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="96"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="96"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
+      <c r="A5" s="96">
         <v>1</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="98" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92" t="s">
+      <c r="I5" s="96"/>
+      <c r="J5" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92" t="s">
+      <c r="K5" s="96"/>
+      <c r="L5" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="92"/>
+      <c r="M5" s="96"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
@@ -7407,88 +7405,88 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92">
+      <c r="A8" s="96">
         <v>0</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="100">
         <v>43009</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+      <c r="A9" s="96">
         <v>1</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="100">
         <v>45238</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92">
+      <c r="A10" s="96">
         <v>2</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="100">
         <v>45405</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94" t="s">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8482,6 +8480,24 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="E1:I3"/>
     <mergeCell ref="J1:M3"/>
@@ -8490,24 +8506,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:M10"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
